--- a/nina-sites-modified-21feb.xlsx
+++ b/nina-sites-modified-21feb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smp21js\Documents\R Projects\dentalAffinities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE3480-17B0-4E56-A0CC-DA1A51DDD20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E4E7B-704D-4E4C-AEB7-2ABC7A9FC069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4560" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw2" sheetId="2" r:id="rId1"/>
@@ -1404,13 +1404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
